--- a/excel/mag_clustering.xlsx
+++ b/excel/mag_clustering.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,97 +491,97 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Teaching Mathematics and its Applications</t>
+          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
+          <t>Computing and Informatics</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Computing and Informatics</t>
+          <t>BMC Bioinformatics</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4363636363636363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BMC Bioinformatics</t>
+          <t>Computer Science and Information Systems</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4363636363636363</v>
+        <v>0.2270022883295195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Computer Science and Information Systems</t>
+          <t>International Journal of Data Mining and Bioinformatics</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2270022883295195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>International Journal of Data Mining and Bioinformatics</t>
+          <t>Journal of Biomedical Informatics</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.632258064516129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Journal of Biomedical Informatics</t>
+          <t>Genomics, Proteomics and Bioinformatics</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.632258064516129</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Genomics, Proteomics and Bioinformatics</t>
+          <t>Publications de l'Institut Mathematique</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Publications de l'Institut Mathematique</t>
+          <t>Physical Chemistry Chemical Physics</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Physical Chemistry Chemical Physics</t>
+          <t>Protein Journal</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -591,7 +591,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Protein Journal</t>
+          <t>Linear Algebra and Its Applications</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -601,27 +601,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications</t>
+          <t>Chemical Industry and Chemical Engineering Quarterly</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chemical Industry and Chemical Engineering Quarterly</t>
+          <t>Mathematics of Computation</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3571428571428572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mathematics of Computation</t>
+          <t>Applicable Algebra in Engineering, Communications and Computing</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -631,117 +631,117 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Applicable Algebra in Engineering, Communications and Computing</t>
+          <t>Soft Computing</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.6205533596837944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Soft Computing</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6205533596837944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>Applied Soft Computing Journal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.4585858585858586</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Applied Soft Computing Journal</t>
+          <t>International Journal of Clinical and Experimental Medicine</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4585858585858586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>International Journal of Clinical and Experimental Medicine</t>
+          <t>Electronic Notes in Discrete Mathematics</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.4433497536945813</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Electronic Notes in Discrete Mathematics</t>
+          <t>Yugoslav Journal of Operations Research</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4433497536945813</v>
+        <v>0.2221153846153846</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Yugoslav Journal of Operations Research</t>
+          <t>Kragujevac Journal of Mathematics</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2221153846153846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kragujevac Journal of Mathematics</t>
+          <t>European Journal of Operational Research</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0.5770114942528736</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>European Journal of Operational Research</t>
+          <t>RAIRO - Operations Research</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5770114942528736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RAIRO - Operations Research</t>
+          <t>Journal of B.U.ON.</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Journal of B.U.ON.</t>
+          <t>Plant Cell, Tissue and Organ Culture</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Plant Cell, Tissue and Organ Culture</t>
+          <t>Computer Languages, Systems and Structures</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -751,7 +751,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Computer Languages, Systems and Structures</t>
+          <t>Constraints</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -761,47 +761,47 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Constraints</t>
+          <t>Theoretical Computer Science</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0.5359477124183006</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Theoretical Computer Science</t>
+          <t>Information Technology and Control</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5359477124183006</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Information Technology and Control</t>
+          <t>Computers and Education</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Computers and Education</t>
+          <t>Filomat</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5789473684210527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Filomat</t>
+          <t>International Journal of Simulation Modelling</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -811,67 +811,67 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>International Journal of Simulation Modelling</t>
+          <t>Acta Polytechnica Hungarica</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Acta Polytechnica Hungarica</t>
+          <t>Annals of Operations Research</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Annals of Operations Research</t>
+          <t>Applied and Computational Mathematics</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Applied and Computational Mathematics</t>
+          <t>Informatica (Netherlands)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0.5837662337662337</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Informatica (Netherlands)</t>
+          <t>Journal of Chemometrics</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5837662337662337</v>
+        <v>0.5627705627705628</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Journal of Chemometrics</t>
+          <t>WSEAS Transactions on Computers</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.5627705627705628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Computers</t>
+          <t>Journal of Computational Biology</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -881,7 +881,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Journal of Computational Biology</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -891,7 +891,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Journal of Immunological Methods</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -901,27 +901,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Journal of Immunological Methods</t>
+          <t>Intelligent Data Analysis</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intelligent Data Analysis</t>
+          <t>Journal of Multiple-Valued Logic and Soft Computing</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Journal of Multiple-Valued Logic and Soft Computing</t>
+          <t>Kybernetes</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -931,47 +931,47 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kybernetes</t>
+          <t>Computers and Geosciences</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Computers and Geosciences</t>
+          <t>Nonlinear Dynamics</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nonlinear Dynamics</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>International Journal of Applied Earth Observation and Geoinformation</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3428571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>International Journal of Applied Earth Observation and Geoinformation</t>
+          <t>Electronic Library</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -981,7 +981,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Electronic Library</t>
+          <t>OR Spectrum</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -991,7 +991,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>OR Spectrum</t>
+          <t>Optimization Letters</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1001,7 +1001,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Optimization Letters</t>
+          <t>European Journal of Industrial Engineering</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1011,27 +1011,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>European Journal of Industrial Engineering</t>
+          <t>Vojnosanitetski Pregled</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vojnosanitetski Pregled</t>
+          <t>Medical Ultrasonography</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Medical Ultrasonography</t>
+          <t>Acta Clinica Croatica</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1041,7 +1041,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Acta Clinica Croatica</t>
+          <t>Journal of Gastrointestinal and Liver Diseases</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1051,57 +1051,57 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Journal of Gastrointestinal and Liver Diseases</t>
+          <t>Telfor Journal</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FME Transactions</t>
+          <t>Multimedia Tools and Applications</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.4051282051282051</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Telfor Journal</t>
+          <t>Computer Applications in Engineering Education</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Multimedia Tools and Applications</t>
+          <t>Hepato-Gastroenterology</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.4051282051282051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Computer Applications in Engineering Education</t>
+          <t>International Journal of Intelligent Systems</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hepato-Gastroenterology</t>
+          <t>Decision Support Systems</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1111,57 +1111,57 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>International Journal of Intelligent Systems</t>
+          <t>IEEE Transactions on Education</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0.5415584415584416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Decision Support Systems</t>
+          <t>International Journal of Electrical Engineering Education</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0.4991596638655462</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Education</t>
+          <t>Computer Journal</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5415584415584416</v>
+        <v>0.4492753623188406</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>International Journal of Electrical Engineering Education</t>
+          <t>Journal of Electrical Engineering</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4991596638655462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Computer Journal</t>
+          <t>Software and Systems Modeling</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4492753623188406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Journal of Electrical Engineering</t>
+          <t>International Journal of Human Computer Studies</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1171,177 +1171,177 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Software and Systems Modeling</t>
+          <t>IEEE Transactions on Software Engineering</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0.6615384615384615</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>International Journal of Human Computer Studies</t>
+          <t>IEEE Software</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Software Engineering</t>
+          <t>Proceedings of the Hawaii International Conference on System Sciences</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.6615384615384615</v>
+        <v>0.2365079365079365</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IEEE Software</t>
+          <t>SIGPLAN Notices (ACM Special Interest Group on Programming Languages)</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.723404255319149</v>
+        <v>0.6105263157894737</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Proceedings of the Hawaii International Conference on System Sciences</t>
+          <t>IET Computers and Digital Techniques</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2365079365079365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SIGPLAN Notices (ACM Special Interest Group on Programming Languages)</t>
+          <t>Journal of Supercomputing</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.6105263157894737</v>
+        <v>0.8583333333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IET Computers and Digital Techniques</t>
+          <t>International Journal of Engineering Education</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0.2817307692307692</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Journal of Supercomputing</t>
+          <t>IEEE Transactions on Learning Technologies</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.5398110661268556</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>International Journal of Engineering Education</t>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2817307692307692</v>
+        <v>0.3433455433455433</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Learning Technologies</t>
+          <t>Journal of Aerospace Information Systems</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.5398110661268556</v>
+        <v>0.6502463054187192</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+          <t>Journal of Parallel and Distributed Computing</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3433455433455433</v>
+        <v>0.8583333333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Journal of Aerospace Information Systems</t>
+          <t>Dr. Dobb's Journal</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.6502463054187192</v>
+        <v>0.6105263157894737</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Journal of Parallel and Distributed Computing</t>
+          <t>Future Generation Computer Systems</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dr. Dobb's Journal</t>
+          <t>Neural, Parallel and Scientific Computations</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.6105263157894737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Future Generation Computer Systems</t>
+          <t>Information Processing Letters</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Neural, Parallel and Scientific Computations</t>
+          <t>Serbian Journal of Electrical Engineering</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Parallel and Distributed Systems</t>
+          <t>International Journal of Software Engineering and Knowledge Engineering</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Information Processing Letters</t>
+          <t>IEEE Access</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1351,37 +1351,37 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Serbian Journal of Electrical Engineering</t>
+          <t>Ad-Hoc and Sensor Wireless Networks</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>International Journal of Software Engineering and Knowledge Engineering</t>
+          <t>IEEE Annals of the History of Computing</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
+          <t>Computer Communications</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ad-Hoc and Sensor Wireless Networks</t>
+          <t>Microprocessing and Microprogramming</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1391,7 +1391,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IEEE Annals of the History of Computing</t>
+          <t>Parallel Computing</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1401,47 +1401,47 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Computer Communications</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IEEE Parallel and Distributed Technology</t>
+          <t>Concurrency Computation</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Microprocessing and Microprogramming</t>
+          <t>Advances in Computers</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Parallel Computing</t>
+          <t>Computers and Electrical Engineering</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Canadian Conference on Electrical and Computer Engineering</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1451,87 +1451,87 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Concurrency Computation</t>
+          <t>Microprocessors and Microsystems</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Advances in Computers</t>
+          <t>International Journal of Computers and Applications</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.560942760942761</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Computers and Electrical Engineering</t>
+          <t>Informatica (Ljubljana)</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Canadian Conference on Electrical and Computer Engineering</t>
+          <t>Journal of Systems Architecture</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Microprocessors and Microsystems</t>
+          <t>IEEE Micro</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.7166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>International Journal of Computers and Applications</t>
+          <t>Revue Roumaine des Sciences Techniques Serie Electrotechnique et Energetique</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.560942760942761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Informatica (Ljubljana)</t>
+          <t>IEEE Transactions on Information Technology in Biomedicine</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Journal of Systems Architecture</t>
+          <t>International Journal on Semantic Web and Information Systems</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.7166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IEEE Micro</t>
+          <t>Journal of Web Semantics</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1541,7 +1541,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Revue Roumaine des Sciences Techniques Serie Electrotechnique et Energetique</t>
+          <t>Energy and Buildings</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1551,17 +1551,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Information Technology in Biomedicine</t>
+          <t>Advanced Engineering Informatics</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>International Journal on Semantic Web and Information Systems</t>
+          <t>Information Processing and Management</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1571,17 +1571,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Journal of Web Semantics</t>
+          <t>Expert Systems with Applications</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0.4611670020120724</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Energy and Buildings</t>
+          <t>International Journal of Enterprise Information Systems</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1591,7 +1591,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Advanced Engineering Informatics</t>
+          <t>WSEAS Transactions on Information Science and Applications</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1601,7 +1601,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Information Processing and Management</t>
+          <t>Water Research</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1611,17 +1611,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Expert Systems with Applications</t>
+          <t>Journal of Hazardous Materials</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.4611670020120724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>International Journal of Enterprise Information Systems</t>
+          <t>Journal of Hydroinformatics</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1631,7 +1631,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Information Science and Applications</t>
+          <t>Journal of Information and Knowledge Management</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1641,17 +1641,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Water Research</t>
+          <t>Engineering Applications of Artificial Intelligence</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0.6038961038961039</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Journal of Hazardous Materials</t>
+          <t>Expert Systems</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1661,7 +1661,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Journal of Hydroinformatics</t>
+          <t>Computers in Industry</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1671,7 +1671,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Journal of Information and Knowledge Management</t>
+          <t>Mathematics and Computers in Simulation</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1681,17 +1681,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Engineering Applications of Artificial Intelligence</t>
+          <t>IEEE expert</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.6038961038961039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Expert Systems</t>
+          <t>IEEE Transactions on Knowledge and Data Engineering</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1701,7 +1701,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Computers in Industry</t>
+          <t>Expert Systems With Applications</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1711,17 +1711,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mathematics and Computers in Simulation</t>
+          <t>IET Software</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IEEE expert</t>
+          <t>International Journal of Parallel Programming</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1731,7 +1731,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Knowledge and Data Engineering</t>
+          <t>GeoInformatica</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1741,7 +1741,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Expert Systems With Applications</t>
+          <t>Journal of Computer Science and Technology</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1751,27 +1751,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Proceedings of the Euromicro Conference on Software Maintenance and Reengineering, CSMR</t>
+          <t>Proceedings of the IEEE</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IET Software</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>International Journal of Parallel Programming</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1781,17 +1781,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GeoInformatica</t>
+          <t>International Journal of Network Management</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Journal of Computer Science and Technology</t>
+          <t>Elektronika ir Elektrotechnika</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1801,7 +1801,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Proceedings of the IEEE</t>
+          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1811,17 +1811,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Journal of Big Data</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.819047619047619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1831,17 +1831,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>International Journal of Network Management</t>
+          <t>Information Systems and e-Business Management</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>0.3676470588235294</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Elektronika ir Elektrotechnika</t>
+          <t>International Journal of Industrial Engineering : Theory Applications and Practice</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1851,77 +1851,77 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
+          <t>Technics Technologies Education Management</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0.4526315789473684</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Journal of Big Data</t>
+          <t>International Journal of Manufacturing Technology and Management</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+          <t>IEEE Transactions on Human-Machine Systems</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0.769795918367347</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Information Systems and e-Business Management</t>
+          <t>International Journal of Artificial Intelligence in Education</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.3676470588235294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>International Journal of Industrial Engineering : Theory Applications and Practice</t>
+          <t>Educational Technology Research and Development</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0.769795918367347</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Technics Technologies Education Management</t>
+          <t>Technology, Knowledge and Learning</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.4526315789473684</v>
+        <v>0.769795918367347</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>International Journal of Manufacturing Technology and Management</t>
+          <t>Educational Technology and Society</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.769795918367347</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Human-Machine Systems</t>
+          <t>Knowledge Management Research and Practice</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1931,57 +1931,57 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>International Journal of Artificial Intelligence in Education</t>
+          <t>IEEE Transactions on Affective Computing</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0.769795918367347</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Educational Technology Research and Development</t>
+          <t>IEEE Transactions on Systems, Man and Cybernetics Part C: Applications and Reviews</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.769795918367347</v>
+        <v>0.9219512195121952</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Technology, Knowledge and Learning</t>
+          <t>Social Science Computer Review</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.769795918367347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Educational Technology and Society</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.769795918367347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Knowledge Management Research and Practice</t>
+          <t>Software - Practice and Experience</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.769795918367347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Affective Computing</t>
+          <t>Journal of Emerging Technologies in Web Intelligence</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -1991,7 +1991,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Systems, Man and Cybernetics Part C: Applications and Reviews</t>
+          <t>Studies in Computational Intelligence</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2001,17 +2001,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Social Science Computer Review</t>
+          <t>International Journal of Continuing Engineering Education and Life-Long Learning</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0.769795918367347</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Program</t>
+          <t>Electronic Communications of the EASST</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2021,7 +2021,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Software - Practice and Experience</t>
+          <t>International Journal of Web Engineering and Technology</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2031,27 +2031,27 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Journal of Emerging Technologies in Web Intelligence</t>
+          <t>IEEE Internet Computing</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.769795918367347</v>
+        <v>0.6279220779220779</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Studies in Computational Intelligence</t>
+          <t>Welding in the World</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.9219512195121952</v>
+        <v>0.6915820029027576</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>International Journal of Continuing Engineering Education and Life-Long Learning</t>
+          <t>Interactive Learning Environments</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2061,17 +2061,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Electronic Communications of the EASST</t>
+          <t>International Journal on Software Tools for Technology Transfer</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0.9219512195121952</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>International Journal of Web Engineering and Technology</t>
+          <t>International Journal of Knowledge and Learning</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2081,37 +2081,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IEEE Internet Computing</t>
+          <t>IEEE Intelligent Systems</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.6279220779220779</v>
+        <v>0.9219512195121952</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Welding in the World</t>
+          <t>IFIP International Federation for Information Processing</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.6915820029027576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Interactive Learning Environments</t>
+          <t>Knowledge-Based Systems</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.769795918367347</v>
+        <v>0.9512820512820512</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>International Journal on Software Tools for Technology Transfer</t>
+          <t>International Journal of Web Based Communities</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2121,67 +2121,67 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>International Journal of Knowledge and Learning</t>
+          <t>Journal of Object Technology</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0.9219512195121952</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IEEE Intelligent Systems</t>
+          <t>Fuzzy Sets and Systems</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.9219512195121952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>IFIP International Federation for Information Processing</t>
+          <t>Communications of the ACM</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0.5993506493506493</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Knowledge-Based Systems</t>
+          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.9512820512820512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>International Journal of Web Based Communities</t>
+          <t>Srpski arhiv za celokupno lekarstvo</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.9219512195121952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Journal of Object Technology</t>
+          <t>International Journal of Flexible Manufacturing Systems</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.9219512195121952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Fuzzy Sets and Systems</t>
+          <t>Science and Engineering Ethics</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2191,17 +2191,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Communications of the ACM</t>
+          <t>Infusionstherapie und Transfusionsmedizin</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.5993506493506493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
+          <t>Australasian Journal of Educational Technology</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2211,7 +2211,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Srpski arhiv za celokupno lekarstvo</t>
+          <t>Internet and Higher Education</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2221,7 +2221,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>International Journal of Flexible Manufacturing Systems</t>
+          <t>IT Professional</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2231,7 +2231,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Science and Engineering Ethics</t>
+          <t>Semantic Web</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2241,7 +2241,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Infusionstherapie und Transfusionsmedizin</t>
+          <t>Journal of Information Technology Education:Research</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2251,27 +2251,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Australasian Journal of Educational Technology</t>
+          <t>International Journal of Technology Enhanced Learning</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0.5082125603864734</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Internet and Higher Education</t>
+          <t>International Journal of Computers, Communications and Control</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>IT Professional</t>
+          <t>Concurrent Engineering Research and Applications</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2281,7 +2281,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Semantic Web</t>
+          <t>International Journal of Cooperative Information Systems</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2291,7 +2291,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Journal of Information Technology Education:Research</t>
+          <t>International Journal of Computer Integrated Manufacturing</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2301,27 +2301,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>International Journal of Technology Enhanced Learning</t>
+          <t>Tehnicki Vjesnik</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.5082125603864734</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>International Journal of Computers, Communications and Control</t>
+          <t>Classical and Quantum Gravity</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.3777777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Concurrent Engineering Research and Applications</t>
+          <t>Ingenieria e Investigacion</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2331,7 +2331,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>International Journal of Cooperative Information Systems</t>
+          <t>Physical Review D</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2341,7 +2341,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>International Journal of Computer Integrated Manufacturing</t>
+          <t>Control Engineering and Applied Informatics</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2351,17 +2351,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Tehnicki Vjesnik</t>
+          <t>Security and Communication Networks</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.7428571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Classical and Quantum Gravity</t>
+          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2371,7 +2371,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ingenieria e Investigacion</t>
+          <t>Information</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2381,7 +2381,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Physical Review D</t>
+          <t>Journal of Computing and Information Technology</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2391,207 +2391,207 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Control Engineering and Applied Informatics</t>
+          <t>IEEE Multimedia</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0.8043478260869565</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Security and Communication Networks</t>
+          <t>Computers in Human Behavior</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0.8043478260869565</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
+          <t>International Journal of Distance Education Technologies</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0.8043478260869565</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Information</t>
+          <t>Behaviour and Information Technology</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0.8043478260869565</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Journal of Computing and Information Technology</t>
+          <t>IEEE Transactions on Systems, Man, and Cybernetics Part A:Systems and Humans</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0.83399209486166</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>IEEE Multimedia</t>
+          <t>Lecture Notes in Artificial Intelligence (Subseries of Lecture Notes in Computer Science)</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.8043478260869565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Computers in Human Behavior</t>
+          <t>Real-Time Imaging</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.8043478260869565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>International Journal of Distance Education Technologies</t>
+          <t>Proceedings - Frontiers in Education Conference</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.8043478260869565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Behaviour and Information Technology</t>
+          <t>Software Quality Journal</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.8043478260869565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Systems, Man, and Cybernetics Part A:Systems and Humans</t>
+          <t>Peptides</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.83399209486166</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Lecture Notes in Artificial Intelligence (Subseries of Lecture Notes in Computer Science)</t>
+          <t>Journal of Sports Medicine and Physical Fitness</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Real-Time Imaging</t>
+          <t>International Journal of Decision Support System Technology</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>0.9428571428571428</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Proceedings - Frontiers in Education Conference</t>
+          <t>The Scientific World Journal</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0.978021978021978</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Software Quality Journal</t>
+          <t>International Journal of Human Capital and Information Technology Professionals</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0.978021978021978</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Peptides</t>
+          <t>International Journal of Computational Intelligence Systems</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Journal of Sports Medicine and Physical Fitness</t>
+          <t>Russian Journal of Marine Biology</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>International Journal of Decision Support System Technology</t>
+          <t>Transportation Planning and Technology</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.9428571428571428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>The Scientific World Journal</t>
+          <t>Current Science</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.978021978021978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>International Journal of Human Capital and Information Technology Professionals</t>
+          <t>Journal of Environmental Protection and Ecology</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.978021978021978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>International Journal of Computational Intelligence Systems</t>
+          <t>Profesional de la Informacion</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.6862745098039216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Russian Journal of Marine Biology</t>
+          <t>Procedia Manufacturing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2601,7 +2601,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Transportation Planning and Technology</t>
+          <t>Ophtalmologie : organe de la Societe francaise d"ophtalmologie</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2611,150 +2611,50 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Journal of Advanced Transportation</t>
+          <t>AGROHEMIJA</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Promet - Traffic - Traffico</t>
+          <t>The International Journal Of Applied Radiation And Isotopes</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Information Development</t>
+          <t>International Journal on Artificial Intelligence Tools</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Safety Science</t>
+          <t>Computational and Mathematical Methods in Medicine</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Current Science</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Journal of Environmental Protection and Ecology</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Profesional de la Informacion</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Actual Problems of Economics</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Procedia Manufacturing</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Ophtalmologie : organe de la Societe francaise d"ophtalmologie</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>AGROHEMIJA</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>The International Journal Of Applied Radiation And Isotopes</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>International Journal on Artificial Intelligence Tools</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Computational and Mathematical Methods in Medicine</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
         <v>1</v>
       </c>
     </row>
